--- a/Departments.xlsx
+++ b/Departments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BITS\AUGSD-TT\Course-Loader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6489A29B-F917-4580-9CFC-AB98D2F6AFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DD6843-E620-46E2-B5F3-064DBD191203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27015" yWindow="-7485" windowWidth="23040" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="23040" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>Chemical</t>
   </si>
   <si>
-    <t xml:space="preserve">MECH </t>
-  </si>
-  <si>
     <t>Mechanical</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>Humanities</t>
+  </si>
+  <si>
+    <t>MECH</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,74 +446,74 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Departments.xlsx
+++ b/Departments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BITS\AUGSD-TT\Course-Loader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DD6843-E620-46E2-B5F3-064DBD191203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0EAB31-81C7-4914-A846-39306887CBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="23040" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="3840" windowWidth="23040" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Department Code</t>
   </si>
@@ -48,12 +48,6 @@
     <t>Electrical</t>
   </si>
   <si>
-    <t>Computer Science</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Computer Science</t>
-  </si>
-  <si>
     <t>PHY</t>
   </si>
   <si>
@@ -91,6 +85,9 @@
   </si>
   <si>
     <t>MECH</t>
+  </si>
+  <si>
+    <t>CS</t>
   </si>
 </sst>
 </file>
@@ -419,7 +416,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,7 +443,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -462,58 +459,58 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
